--- a/src/main/resources/excelimport/ImportTemplateClubWorldCup.xlsx
+++ b/src/main/resources/excelimport/ImportTemplateClubWorldCup.xlsx
@@ -51,15 +51,72 @@
     <t xml:space="preserve">Miami</t>
   </si>
   <si>
+    <t xml:space="preserve">AL_AIN_FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL_HILAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATLETICO_MADRID</t>
   </si>
   <si>
+    <t xml:space="preserve">AUCKLAND_CITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAYERN_MUENCHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENFICA_LISSABON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOCA_JUNIORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORUSSIA_DORTMUND</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOTAFOGO</t>
   </si>
   <si>
+    <t xml:space="preserve">CA_RIVER_PLATE_MONTEVIDEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF_MONTERREY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF_PACHUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHELSEA_CREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB_LEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR_FLAMENGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPERANCE_SPORTIVE_TUNIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC_INTERNAZIONALE_MILANO</t>
+  </si>
+  <si>
     <t xml:space="preserve">FC_PORTO</t>
   </si>
   <si>
+    <t xml:space="preserve">FC_SALZBURG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLUMINENSE_FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUVENTUS_FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMELODI_SUNDOWNS_FC</t>
+  </si>
+  <si>
     <t xml:space="preserve">MANCHESTER_CITY</t>
   </si>
   <si>
@@ -69,67 +126,10 @@
     <t xml:space="preserve">PARIS_SAINT_GERMAIN</t>
   </si>
   <si>
+    <t xml:space="preserve">REAL_MADRID</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEATLE_SOUNDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL_AIN_FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL_HILAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUCKLAND_CITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAYERN_MUENCHEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENEFICA_LISSABON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOCA_JUNIORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORUSSIA_DORTMUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA_RIVER_PLATE_MONTEVIDEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF_MONTERREY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF_PACHUCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHELSEA_CREST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB_LEON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR_FLAMENGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPERANCE_SPORTIVE_TUNIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC_INTERNAZIONALE_MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC_SALZBURG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLUMINENSE_FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUVENTUS_FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAMELODI_SUNDOWNS_FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REAL_MADRID</t>
   </si>
   <si>
     <t xml:space="preserve">ULSAN_HD</t>
@@ -288,6 +288,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3062,7 +3079,7 @@
   <dimension ref="A1:A232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3092,92 +3109,92 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
